--- a/Data/SDPF_ZIB_V5.xlsx
+++ b/Data/SDPF_ZIB_V5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROVI\EZBattery_python\EZBattery_Demo\EZBattery_Demo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROVI\OCED\demo\EZBattery-master\EZBattery-master\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC51157-1B9C-4D30-B0E8-F281376EC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1313C-48A9-4581-A66C-5FC7A0FF445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="357">
   <si>
     <t>Parameter</t>
   </si>
@@ -1120,6 +1120,12 @@
   </si>
   <si>
     <t>C:\Users\chen200\Desktop\ROVI\Data\Bin_ZnI_exp_07242013.xlsx</t>
+  </si>
+  <si>
+    <t>SystemAuxPower</t>
+  </si>
+  <si>
+    <t>SystemEletrodePermeabilityAdjust</t>
   </si>
 </sst>
 </file>
@@ -1911,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,26 +5410,52 @@
       <c r="E202" s="28"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="18" t="s">
-        <v>345</v>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D203" s="28" t="s">
-        <v>347</v>
+        <v>283</v>
+      </c>
+      <c r="C203" s="26">
+        <v>0</v>
       </c>
       <c r="E203" s="28"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="44"/>
-      <c r="B204" s="45"/>
-      <c r="C204" s="46"/>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1</v>
+      </c>
+      <c r="C204" s="26">
+        <v>1</v>
+      </c>
+      <c r="E204" s="28"/>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E205" s="28"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="44"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
